--- a/data/evaluation/evaluation_North_Summer_Onions.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Onions.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4558.650902452748</v>
+        <v>4610.375296196321</v>
       </c>
       <c r="C4" t="n">
-        <v>37788812.12992503</v>
+        <v>37905093.90309313</v>
       </c>
       <c r="D4" t="n">
-        <v>6147.260538640366</v>
+        <v>6156.711289567924</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1407875278473657</v>
+        <v>0.1381436037820487</v>
       </c>
     </row>
     <row r="5">
